--- a/data/trans_orig/P21D_5_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Edad-trans_orig.xlsx
@@ -926,16 +926,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5021</v>
+        <v>4867</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.003942443888749191</v>
+        <v>0.003942443888749192</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02005383826011033</v>
+        <v>0.01943922146311891</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5466</v>
+        <v>4963</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002068471101656527</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01145588116116819</v>
+        <v>0.01040002379386863</v>
       </c>
     </row>
     <row r="8">
@@ -986,7 +986,7 @@
         <v>249367</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>245333</v>
+        <v>245487</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>250354</v>
@@ -995,7 +995,7 @@
         <v>0.9960575561112508</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9799461617398897</v>
+        <v>0.9805607785368811</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1007,16 +1007,16 @@
         <v>476179</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>471700</v>
+        <v>472203</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>477166</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9979315288983435</v>
+        <v>0.9979315288983434</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.988544118838833</v>
+        <v>0.9895999762061313</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4536</v>
+        <v>3790</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002730280641375578</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0152915892190513</v>
+        <v>0.01277628132631948</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4020</v>
+        <v>4072</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001474813256683813</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007319459526179449</v>
+        <v>0.007415065720631856</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1187,7 @@
         <v>295825</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>292099</v>
+        <v>292845</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>296635</v>
@@ -1196,7 +1196,7 @@
         <v>0.9972697193586244</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9847084107809492</v>
+        <v>0.9872237186736814</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>548343</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>545133</v>
+        <v>545081</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>549153</v>
@@ -1217,7 +1217,7 @@
         <v>0.9985251867433163</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9926805404738205</v>
+        <v>0.992584934279368</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5780</v>
+        <v>4591</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003623670846499162</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01829737835353773</v>
+        <v>0.01453098485701524</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4118</v>
+        <v>4125</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.00395336670109361</v>
+        <v>0.003953366701093609</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0119084440065147</v>
+        <v>0.01192979999114101</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1354,19 +1354,19 @@
         <v>2512</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7638</v>
+        <v>6844</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003795966451430353</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001009375911051564</v>
+        <v>0.001015714819348708</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01154299387973883</v>
+        <v>0.01034267393295251</v>
       </c>
     </row>
     <row r="14">
@@ -1383,16 +1383,16 @@
         <v>314767</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>310132</v>
+        <v>311321</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>315912</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9963763291535007</v>
+        <v>0.9963763291535009</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9817026216464623</v>
+        <v>0.9854690151429848</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>344441</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>341690</v>
+        <v>341683</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>345808</v>
@@ -1413,7 +1413,7 @@
         <v>0.9960466332989064</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9880915559934852</v>
+        <v>0.9880702000088589</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1425,19 +1425,19 @@
         <v>659208</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>654082</v>
+        <v>654876</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>661052</v>
+        <v>661048</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9962040335485697</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9884570061202612</v>
+        <v>0.9896573260670474</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9989906240889485</v>
+        <v>0.9989842851806513</v>
       </c>
     </row>
     <row r="15">
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5885</v>
+        <v>6520</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006424712141445604</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02285580599325225</v>
+        <v>0.02532159238417655</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1550,19 +1550,19 @@
         <v>1962</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5374</v>
+        <v>5375</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007741234302782192</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002415888370700812</v>
+        <v>0.002398597955253418</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02120128884472904</v>
+        <v>0.02120616326715439</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1571,19 +1571,19 @@
         <v>3616</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1312</v>
+        <v>1319</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8449</v>
+        <v>8908</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007077783359769991</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002568201256572652</v>
+        <v>0.002581107244345292</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01653592527787498</v>
+        <v>0.01743553794119152</v>
       </c>
     </row>
     <row r="17">
@@ -1600,7 +1600,7 @@
         <v>255827</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>251596</v>
+        <v>250961</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>257481</v>
@@ -1609,7 +1609,7 @@
         <v>0.9935752878585543</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9771441940067475</v>
+        <v>0.9746784076158239</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1621,19 +1621,19 @@
         <v>251491</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>248079</v>
+        <v>248078</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>252841</v>
+        <v>252845</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9922587656972179</v>
+        <v>0.9922587656972178</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.978798711155271</v>
+        <v>0.9787938367328457</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9975841116292992</v>
+        <v>0.9976014020447467</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>683</v>
@@ -1642,19 +1642,19 @@
         <v>507318</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>502485</v>
+        <v>502026</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>509622</v>
+        <v>509615</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9929222166402301</v>
+        <v>0.9929222166402302</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9834640747221253</v>
+        <v>0.9825644620588085</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9974317987434272</v>
+        <v>0.9974188927556548</v>
       </c>
     </row>
     <row r="18">
@@ -1762,16 +1762,16 @@
         <v>385</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4244</v>
+        <v>4012</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007805489779361833</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001936024837638988</v>
+        <v>0.001937105684996549</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02132846284645708</v>
+        <v>0.02016361764014687</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1783,16 +1783,16 @@
         <v>385</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4628</v>
+        <v>4509</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004163545479271055</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001031366572423053</v>
+        <v>0.00103272985588069</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01240727084566528</v>
+        <v>0.01208862002513685</v>
       </c>
     </row>
     <row r="20">
@@ -1822,19 +1822,19 @@
         <v>197428</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>194737</v>
+        <v>194969</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>198596</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9921945102206383</v>
+        <v>0.9921945102206381</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9786715371535434</v>
+        <v>0.9798363823598533</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9980639751623609</v>
+        <v>0.9980628943150034</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>613</v>
@@ -1843,19 +1843,19 @@
         <v>371482</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>368407</v>
+        <v>368526</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>372650</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9958364545207291</v>
+        <v>0.9958364545207289</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9875927291543345</v>
+        <v>0.987911379974863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9989686334275769</v>
+        <v>0.9989672701441193</v>
       </c>
     </row>
     <row r="21">
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4260</v>
+        <v>3154</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004521328732561106</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03288098757191676</v>
+        <v>0.02434567386646371</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -1984,16 +1984,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2952</v>
+        <v>2942</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.001855400667279291</v>
+        <v>0.001855400667279292</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009351514938091599</v>
+        <v>0.009318833301880802</v>
       </c>
     </row>
     <row r="23">
@@ -2010,7 +2010,7 @@
         <v>128975</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>125301</v>
+        <v>126407</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>129561</v>
@@ -2019,7 +2019,7 @@
         <v>0.9954786712674389</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9671190124280844</v>
+        <v>0.9756543261335373</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2044,16 +2044,16 @@
         <v>315134</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>312768</v>
+        <v>312778</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>315720</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9981445993327206</v>
+        <v>0.9981445993327209</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9906484850619083</v>
+        <v>0.9906811666981191</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2148,19 +2148,19 @@
         <v>3385</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1013</v>
+        <v>816</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8730</v>
+        <v>8340</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002159880433428598</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0006466689991591903</v>
+        <v>0.000520521535396228</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.005570585622283544</v>
+        <v>0.005322143294216469</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2169,19 +2169,19 @@
         <v>6679</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3284</v>
+        <v>3341</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11681</v>
+        <v>12385</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.003941980535749518</v>
+        <v>0.003941980535749517</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001937927992953743</v>
+        <v>0.001971867472932176</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.006893787165249727</v>
+        <v>0.00730965282363579</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -2190,19 +2190,19 @@
         <v>10064</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5643</v>
+        <v>6105</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17330</v>
+        <v>17296</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003085697296927659</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00173015162276338</v>
+        <v>0.001871902665510425</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.005313505593969582</v>
+        <v>0.005303244363669046</v>
       </c>
     </row>
     <row r="26">
@@ -2219,19 +2219,19 @@
         <v>1563733</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1558388</v>
+        <v>1558778</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1566105</v>
+        <v>1566302</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9978401195665715</v>
+        <v>0.9978401195665714</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9944294143777166</v>
+        <v>0.9946778567057836</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9993533310008407</v>
+        <v>0.9994794784646037</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2362</v>
@@ -2240,19 +2240,19 @@
         <v>1687695</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1682693</v>
+        <v>1681989</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1691090</v>
+        <v>1691033</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9960580194642505</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9931062128347524</v>
+        <v>0.9926903471763651</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9980620720070468</v>
+        <v>0.9980281325270685</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3817</v>
@@ -2261,19 +2261,19 @@
         <v>3251428</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3244162</v>
+        <v>3244196</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3255849</v>
+        <v>3255387</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9969143027030722</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9946864944060305</v>
+        <v>0.9946967556363309</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9982698483772365</v>
+        <v>0.9981280973344896</v>
       </c>
     </row>
     <row r="27">
